--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lama2-Itga7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lama2-Itga7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Lama2</t>
   </si>
   <si>
     <t>Itga7</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.371178</v>
+        <v>3.413467</v>
       </c>
       <c r="H2">
-        <v>10.113534</v>
+        <v>10.240401</v>
       </c>
       <c r="I2">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="J2">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.165574666666667</v>
+        <v>2.655702666666667</v>
       </c>
       <c r="N2">
-        <v>9.496724</v>
+        <v>7.967108</v>
       </c>
       <c r="O2">
-        <v>0.07285974214006047</v>
+        <v>0.05887637219457465</v>
       </c>
       <c r="P2">
-        <v>0.07285974214006045</v>
+        <v>0.05887637219457464</v>
       </c>
       <c r="Q2">
-        <v>10.671715673624</v>
+        <v>9.065153414478667</v>
       </c>
       <c r="R2">
-        <v>96.04544106261601</v>
+        <v>81.58638073030799</v>
       </c>
       <c r="S2">
-        <v>0.002973482424747055</v>
+        <v>0.002199959341890894</v>
       </c>
       <c r="T2">
-        <v>0.002973482424747054</v>
+        <v>0.002199959341890893</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.371178</v>
+        <v>3.413467</v>
       </c>
       <c r="H3">
-        <v>10.113534</v>
+        <v>10.240401</v>
       </c>
       <c r="I3">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="J3">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>15.064787</v>
       </c>
       <c r="O3">
-        <v>0.1155784348597406</v>
+        <v>0.111327724745791</v>
       </c>
       <c r="P3">
-        <v>0.1155784348597406</v>
+        <v>0.111327724745791</v>
       </c>
       <c r="Q3">
-        <v>16.928692836362</v>
+        <v>17.14105109550967</v>
       </c>
       <c r="R3">
-        <v>152.358235527258</v>
+        <v>154.269459859587</v>
       </c>
       <c r="S3">
-        <v>0.00471687703855118</v>
+        <v>0.004159843056507642</v>
       </c>
       <c r="T3">
-        <v>0.004716877038551178</v>
+        <v>0.004159843056507641</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.371178</v>
+        <v>3.413467</v>
       </c>
       <c r="H4">
-        <v>10.113534</v>
+        <v>10.240401</v>
       </c>
       <c r="I4">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="J4">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3650223333333334</v>
+        <v>0.9216453333333332</v>
       </c>
       <c r="N4">
-        <v>1.095067</v>
+        <v>2.764936</v>
       </c>
       <c r="O4">
-        <v>0.008401454990804157</v>
+        <v>0.02043268410948847</v>
       </c>
       <c r="P4">
-        <v>0.008401454990804155</v>
+        <v>0.02043268410948846</v>
       </c>
       <c r="Q4">
-        <v>1.230555259642</v>
+        <v>3.146005931037333</v>
       </c>
       <c r="R4">
-        <v>11.074997336778</v>
+        <v>28.314053379336</v>
       </c>
       <c r="S4">
-        <v>0.0003428721818619225</v>
+        <v>0.0007634824057776597</v>
       </c>
       <c r="T4">
-        <v>0.0003428721818619224</v>
+        <v>0.0007634824057776596</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.371178</v>
+        <v>3.413467</v>
       </c>
       <c r="H5">
-        <v>10.113534</v>
+        <v>10.240401</v>
       </c>
       <c r="I5">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="J5">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.42231266666666</v>
+        <v>35.230657</v>
       </c>
       <c r="N5">
-        <v>103.266938</v>
+        <v>105.691971</v>
       </c>
       <c r="O5">
-        <v>0.7922734697010897</v>
+        <v>0.7810562907612387</v>
       </c>
       <c r="P5">
-        <v>0.7922734697010895</v>
+        <v>0.7810562907612385</v>
       </c>
       <c r="Q5">
-        <v>116.043743170988</v>
+        <v>120.258685057819</v>
       </c>
       <c r="R5">
-        <v>1044.393688538892</v>
+        <v>1082.328165520371</v>
       </c>
       <c r="S5">
-        <v>0.03233351050324762</v>
+        <v>0.0291847479617838</v>
       </c>
       <c r="T5">
-        <v>0.03233351050324761</v>
+        <v>0.0291847479617838</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.371178</v>
+        <v>3.413467</v>
       </c>
       <c r="H6">
-        <v>10.113534</v>
+        <v>10.240401</v>
       </c>
       <c r="I6">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="J6">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4730086666666666</v>
+        <v>1.276824333333333</v>
       </c>
       <c r="N6">
-        <v>1.419026</v>
+        <v>3.830473</v>
       </c>
       <c r="O6">
-        <v>0.01088689830830521</v>
+        <v>0.02830692818890731</v>
       </c>
       <c r="P6">
-        <v>0.0108868983083052</v>
+        <v>0.02830692818890731</v>
       </c>
       <c r="Q6">
-        <v>1.594596410876</v>
+        <v>4.358397726630334</v>
       </c>
       <c r="R6">
-        <v>14.351367697884</v>
+        <v>39.225579539673</v>
       </c>
       <c r="S6">
-        <v>0.0004443057280867712</v>
+        <v>0.001057709379640748</v>
       </c>
       <c r="T6">
-        <v>0.0004443057280867711</v>
+        <v>0.001057709379640747</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>177.833096</v>
       </c>
       <c r="I7">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="J7">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.165574666666667</v>
+        <v>2.655702666666667</v>
       </c>
       <c r="N7">
-        <v>9.496724</v>
+        <v>7.967108</v>
       </c>
       <c r="O7">
-        <v>0.07285974214006047</v>
+        <v>0.05887637219457465</v>
       </c>
       <c r="P7">
-        <v>0.07285974214006045</v>
+        <v>0.05887637219457464</v>
       </c>
       <c r="Q7">
-        <v>187.6479811975004</v>
+        <v>157.4239424229297</v>
       </c>
       <c r="R7">
-        <v>1688.831830777504</v>
+        <v>1416.815481806368</v>
       </c>
       <c r="S7">
-        <v>0.05228474888148453</v>
+        <v>0.03820412704957355</v>
       </c>
       <c r="T7">
-        <v>0.05228474888148452</v>
+        <v>0.03820412704957354</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>177.833096</v>
       </c>
       <c r="I8">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="J8">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>15.064787</v>
       </c>
       <c r="O8">
-        <v>0.1155784348597406</v>
+        <v>0.111327724745791</v>
       </c>
       <c r="P8">
-        <v>0.1155784348597406</v>
+        <v>0.111327724745791</v>
       </c>
       <c r="Q8">
         <v>297.6686347545057</v>
@@ -948,10 +948,10 @@
         <v>2679.017712790552</v>
       </c>
       <c r="S8">
-        <v>0.08294003334708397</v>
+        <v>0.07223914079271475</v>
       </c>
       <c r="T8">
-        <v>0.08294003334708396</v>
+        <v>0.07223914079271472</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>177.833096</v>
       </c>
       <c r="I9">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="J9">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3650223333333334</v>
+        <v>0.9216453333333332</v>
       </c>
       <c r="N9">
-        <v>1.095067</v>
+        <v>2.764936</v>
       </c>
       <c r="O9">
-        <v>0.008401454990804157</v>
+        <v>0.02043268410948847</v>
       </c>
       <c r="P9">
-        <v>0.008401454990804155</v>
+        <v>0.02043268410948846</v>
       </c>
       <c r="Q9">
-        <v>21.63768388193689</v>
+        <v>54.63301434687288</v>
       </c>
       <c r="R9">
-        <v>194.739154937432</v>
+        <v>491.6971291218559</v>
       </c>
       <c r="S9">
-        <v>0.006028953047745794</v>
+        <v>0.01325850813468823</v>
       </c>
       <c r="T9">
-        <v>0.006028953047745794</v>
+        <v>0.01325850813468823</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>177.833096</v>
       </c>
       <c r="I10">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="J10">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>34.42231266666666</v>
+        <v>35.230657</v>
       </c>
       <c r="N10">
-        <v>103.266938</v>
+        <v>105.691971</v>
       </c>
       <c r="O10">
-        <v>0.7922734697010897</v>
+        <v>0.7810562907612387</v>
       </c>
       <c r="P10">
-        <v>0.7922734697010895</v>
+        <v>0.7810562907612385</v>
       </c>
       <c r="Q10">
-        <v>2040.475477664449</v>
+        <v>2088.39226947469</v>
       </c>
       <c r="R10">
-        <v>18364.27929898005</v>
+        <v>18795.53042527221</v>
       </c>
       <c r="S10">
-        <v>0.5685419436312809</v>
+        <v>0.506817466037092</v>
       </c>
       <c r="T10">
-        <v>0.5685419436312806</v>
+        <v>0.5068174660370919</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>177.833096</v>
       </c>
       <c r="I11">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="J11">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4730086666666666</v>
+        <v>1.276824333333333</v>
       </c>
       <c r="N11">
-        <v>1.419026</v>
+        <v>3.830473</v>
       </c>
       <c r="O11">
-        <v>0.01088689830830521</v>
+        <v>0.02830692818890731</v>
       </c>
       <c r="P11">
-        <v>0.0108868983083052</v>
+        <v>0.02830692818890731</v>
       </c>
       <c r="Q11">
-        <v>28.03886520938844</v>
+        <v>75.68720808160089</v>
       </c>
       <c r="R11">
-        <v>252.349786884496</v>
+        <v>681.1848727344079</v>
       </c>
       <c r="S11">
-        <v>0.007812527569117251</v>
+        <v>0.01836800469529987</v>
       </c>
       <c r="T11">
-        <v>0.00781252756911725</v>
+        <v>0.01836800469529987</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.01422566666666667</v>
+        <v>0.06447599999999999</v>
       </c>
       <c r="H12">
-        <v>0.042677</v>
+        <v>0.193428</v>
       </c>
       <c r="I12">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="J12">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.165574666666667</v>
+        <v>2.655702666666667</v>
       </c>
       <c r="N12">
-        <v>9.496724</v>
+        <v>7.967108</v>
       </c>
       <c r="O12">
-        <v>0.07285974214006047</v>
+        <v>0.05887637219457465</v>
       </c>
       <c r="P12">
-        <v>0.07285974214006045</v>
+        <v>0.05887637219457464</v>
       </c>
       <c r="Q12">
-        <v>0.04503241001644444</v>
+        <v>0.171229085136</v>
       </c>
       <c r="R12">
-        <v>0.405291690148</v>
+        <v>1.541061766224</v>
       </c>
       <c r="S12">
-        <v>1.254747444769851E-05</v>
+        <v>4.155440158869479E-05</v>
       </c>
       <c r="T12">
-        <v>1.25474744476985E-05</v>
+        <v>4.155440158869478E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.01422566666666667</v>
+        <v>0.06447599999999999</v>
       </c>
       <c r="H13">
-        <v>0.042677</v>
+        <v>0.193428</v>
       </c>
       <c r="I13">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="J13">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>15.064787</v>
       </c>
       <c r="O13">
-        <v>0.1155784348597406</v>
+        <v>0.111327724745791</v>
       </c>
       <c r="P13">
-        <v>0.1155784348597406</v>
+        <v>0.111327724745791</v>
       </c>
       <c r="Q13">
-        <v>0.07143554608877777</v>
+        <v>0.3237724022039999</v>
       </c>
       <c r="R13">
-        <v>0.6429199147989999</v>
+        <v>2.913951619836</v>
       </c>
       <c r="S13">
-        <v>1.990423539133291E-05</v>
+        <v>7.857408344987273E-05</v>
       </c>
       <c r="T13">
-        <v>1.990423539133291E-05</v>
+        <v>7.857408344987271E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.01422566666666667</v>
+        <v>0.06447599999999999</v>
       </c>
       <c r="H14">
-        <v>0.042677</v>
+        <v>0.193428</v>
       </c>
       <c r="I14">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="J14">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3650223333333334</v>
+        <v>0.9216453333333332</v>
       </c>
       <c r="N14">
-        <v>1.095067</v>
+        <v>2.764936</v>
       </c>
       <c r="O14">
-        <v>0.008401454990804157</v>
+        <v>0.02043268410948847</v>
       </c>
       <c r="P14">
-        <v>0.008401454990804155</v>
+        <v>0.02043268410948846</v>
       </c>
       <c r="Q14">
-        <v>0.005192686039888889</v>
+        <v>0.05942400451199999</v>
       </c>
       <c r="R14">
-        <v>0.04673417435900001</v>
+        <v>0.5348160406079999</v>
       </c>
       <c r="S14">
-        <v>1.446848955599622E-06</v>
+        <v>1.442120037923917E-05</v>
       </c>
       <c r="T14">
-        <v>1.446848955599621E-06</v>
+        <v>1.442120037923916E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.01422566666666667</v>
+        <v>0.06447599999999999</v>
       </c>
       <c r="H15">
-        <v>0.042677</v>
+        <v>0.193428</v>
       </c>
       <c r="I15">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="J15">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>34.42231266666666</v>
+        <v>35.230657</v>
       </c>
       <c r="N15">
-        <v>103.266938</v>
+        <v>105.691971</v>
       </c>
       <c r="O15">
-        <v>0.7922734697010897</v>
+        <v>0.7810562907612387</v>
       </c>
       <c r="P15">
-        <v>0.7922734697010895</v>
+        <v>0.7810562907612385</v>
       </c>
       <c r="Q15">
-        <v>0.4896803458917777</v>
+        <v>2.271531840732</v>
       </c>
       <c r="R15">
-        <v>4.407123113026</v>
+        <v>20.443786566588</v>
       </c>
       <c r="S15">
-        <v>0.0001364406574148165</v>
+        <v>0.0005512623410696434</v>
       </c>
       <c r="T15">
-        <v>0.0001364406574148164</v>
+        <v>0.0005512623410696432</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.01422566666666667</v>
+        <v>0.06447599999999999</v>
       </c>
       <c r="H16">
-        <v>0.042677</v>
+        <v>0.193428</v>
       </c>
       <c r="I16">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="J16">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4730086666666666</v>
+        <v>1.276824333333333</v>
       </c>
       <c r="N16">
-        <v>1.419026</v>
+        <v>3.830473</v>
       </c>
       <c r="O16">
-        <v>0.01088689830830521</v>
+        <v>0.02830692818890731</v>
       </c>
       <c r="P16">
-        <v>0.0108868983083052</v>
+        <v>0.02830692818890731</v>
       </c>
       <c r="Q16">
-        <v>0.006728863622444444</v>
+        <v>0.08232452571599999</v>
       </c>
       <c r="R16">
-        <v>0.060559772602</v>
+        <v>0.7409207314439999</v>
       </c>
       <c r="S16">
-        <v>1.874877323550713E-06</v>
+        <v>1.997876937486632E-05</v>
       </c>
       <c r="T16">
-        <v>1.874877323550712E-06</v>
+        <v>1.997876937486632E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.94144166666667</v>
+        <v>28.54642066666667</v>
       </c>
       <c r="H17">
-        <v>59.824325</v>
+        <v>85.639262</v>
       </c>
       <c r="I17">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="J17">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.165574666666667</v>
+        <v>2.655702666666667</v>
       </c>
       <c r="N17">
-        <v>9.496724</v>
+        <v>7.967108</v>
       </c>
       <c r="O17">
-        <v>0.07285974214006047</v>
+        <v>0.05887637219457465</v>
       </c>
       <c r="P17">
-        <v>0.07285974214006045</v>
+        <v>0.05887637219457464</v>
       </c>
       <c r="Q17">
-        <v>63.12612255681111</v>
+        <v>75.81080548825511</v>
       </c>
       <c r="R17">
-        <v>568.1351030113001</v>
+        <v>682.2972493942959</v>
       </c>
       <c r="S17">
-        <v>0.01758896335938119</v>
+        <v>0.01839799969449847</v>
       </c>
       <c r="T17">
-        <v>0.01758896335938118</v>
+        <v>0.01839799969449847</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.94144166666667</v>
+        <v>28.54642066666667</v>
       </c>
       <c r="H18">
-        <v>59.824325</v>
+        <v>85.639262</v>
       </c>
       <c r="I18">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="J18">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>15.064787</v>
       </c>
       <c r="O18">
-        <v>0.1155784348597406</v>
+        <v>0.111327724745791</v>
       </c>
       <c r="P18">
-        <v>0.1155784348597406</v>
+        <v>0.111327724745791</v>
       </c>
       <c r="Q18">
-        <v>100.1378570604194</v>
+        <v>143.3485823185771</v>
       </c>
       <c r="R18">
-        <v>901.240713543775</v>
+        <v>1290.137240867194</v>
       </c>
       <c r="S18">
-        <v>0.02790162023871411</v>
+        <v>0.03478827532194674</v>
       </c>
       <c r="T18">
-        <v>0.02790162023871411</v>
+        <v>0.03478827532194674</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.94144166666667</v>
+        <v>28.54642066666667</v>
       </c>
       <c r="H19">
-        <v>59.824325</v>
+        <v>85.639262</v>
       </c>
       <c r="I19">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="J19">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3650223333333334</v>
+        <v>0.9216453333333332</v>
       </c>
       <c r="N19">
-        <v>1.095067</v>
+        <v>2.764936</v>
       </c>
       <c r="O19">
-        <v>0.008401454990804157</v>
+        <v>0.02043268410948847</v>
       </c>
       <c r="P19">
-        <v>0.008401454990804155</v>
+        <v>0.02043268410948846</v>
       </c>
       <c r="Q19">
-        <v>7.279071567197223</v>
+        <v>26.30967539080355</v>
       </c>
       <c r="R19">
-        <v>65.51164410477502</v>
+        <v>236.787078517232</v>
       </c>
       <c r="S19">
-        <v>0.00202818291224084</v>
+        <v>0.006384913030337709</v>
       </c>
       <c r="T19">
-        <v>0.00202818291224084</v>
+        <v>0.006384913030337709</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>19.94144166666667</v>
+        <v>28.54642066666667</v>
       </c>
       <c r="H20">
-        <v>59.824325</v>
+        <v>85.639262</v>
       </c>
       <c r="I20">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="J20">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>34.42231266666666</v>
+        <v>35.230657</v>
       </c>
       <c r="N20">
-        <v>103.266938</v>
+        <v>105.691971</v>
       </c>
       <c r="O20">
-        <v>0.7922734697010897</v>
+        <v>0.7810562907612387</v>
       </c>
       <c r="P20">
-        <v>0.7922734697010895</v>
+        <v>0.7810562907612385</v>
       </c>
       <c r="Q20">
-        <v>686.4305400740943</v>
+        <v>1005.709155085045</v>
       </c>
       <c r="R20">
-        <v>6177.87486066685</v>
+        <v>9051.382395765402</v>
       </c>
       <c r="S20">
-        <v>0.1912615749091464</v>
+        <v>0.244068594296568</v>
       </c>
       <c r="T20">
-        <v>0.1912615749091464</v>
+        <v>0.2440685942965679</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>19.94144166666667</v>
+        <v>28.54642066666667</v>
       </c>
       <c r="H21">
-        <v>59.824325</v>
+        <v>85.639262</v>
       </c>
       <c r="I21">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="J21">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.4730086666666666</v>
+        <v>1.276824333333333</v>
       </c>
       <c r="N21">
-        <v>1.419026</v>
+        <v>3.830473</v>
       </c>
       <c r="O21">
-        <v>0.01088689830830521</v>
+        <v>0.02830692818890731</v>
       </c>
       <c r="P21">
-        <v>0.0108868983083052</v>
+        <v>0.02830692818890731</v>
       </c>
       <c r="Q21">
-        <v>9.43247473416111</v>
+        <v>36.44876453676955</v>
       </c>
       <c r="R21">
-        <v>84.89227260745</v>
+        <v>328.038880830926</v>
       </c>
       <c r="S21">
-        <v>0.002628190133777632</v>
+        <v>0.008845498402153533</v>
       </c>
       <c r="T21">
-        <v>0.002628190133777632</v>
+        <v>0.008845498402153533</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.05078666666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.15236</v>
+      </c>
+      <c r="I22">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="J22">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.655702666666667</v>
+      </c>
+      <c r="N22">
+        <v>7.967108</v>
+      </c>
+      <c r="O22">
+        <v>0.05887637219457465</v>
+      </c>
+      <c r="P22">
+        <v>0.05887637219457464</v>
+      </c>
+      <c r="Q22">
+        <v>0.1348742860977778</v>
+      </c>
+      <c r="R22">
+        <v>1.21386857488</v>
+      </c>
+      <c r="S22">
+        <v>3.273170702304495E-05</v>
+      </c>
+      <c r="T22">
+        <v>3.273170702304494E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.05078666666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.15236</v>
+      </c>
+      <c r="I23">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="J23">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.021595666666666</v>
+      </c>
+      <c r="N23">
+        <v>15.064787</v>
+      </c>
+      <c r="O23">
+        <v>0.111327724745791</v>
+      </c>
+      <c r="P23">
+        <v>0.111327724745791</v>
+      </c>
+      <c r="Q23">
+        <v>0.2550301052577778</v>
+      </c>
+      <c r="R23">
+        <v>2.29527094732</v>
+      </c>
+      <c r="S23">
+        <v>6.189149117202582E-05</v>
+      </c>
+      <c r="T23">
+        <v>6.18914911720258E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.05078666666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.15236</v>
+      </c>
+      <c r="I24">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="J24">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.9216453333333332</v>
+      </c>
+      <c r="N24">
+        <v>2.764936</v>
+      </c>
+      <c r="O24">
+        <v>0.02043268410948847</v>
+      </c>
+      <c r="P24">
+        <v>0.02043268410948846</v>
+      </c>
+      <c r="Q24">
+        <v>0.04680729432888888</v>
+      </c>
+      <c r="R24">
+        <v>0.4212656489599999</v>
+      </c>
+      <c r="S24">
+        <v>1.135933830562731E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.135933830562731E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.05078666666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.15236</v>
+      </c>
+      <c r="I25">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="J25">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>35.230657</v>
+      </c>
+      <c r="N25">
+        <v>105.691971</v>
+      </c>
+      <c r="O25">
+        <v>0.7810562907612387</v>
+      </c>
+      <c r="P25">
+        <v>0.7810562907612385</v>
+      </c>
+      <c r="Q25">
+        <v>1.789247633506667</v>
+      </c>
+      <c r="R25">
+        <v>16.10322870156</v>
+      </c>
+      <c r="S25">
+        <v>0.0004342201247253286</v>
+      </c>
+      <c r="T25">
+        <v>0.0004342201247253285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.05078666666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.15236</v>
+      </c>
+      <c r="I26">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="J26">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.276824333333333</v>
+      </c>
+      <c r="N26">
+        <v>3.830473</v>
+      </c>
+      <c r="O26">
+        <v>0.02830692818890731</v>
+      </c>
+      <c r="P26">
+        <v>0.02830692818890731</v>
+      </c>
+      <c r="Q26">
+        <v>0.06484565180888889</v>
+      </c>
+      <c r="R26">
+        <v>0.58361086628</v>
+      </c>
+      <c r="S26">
+        <v>1.573694243829556E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.573694243829556E-05</v>
       </c>
     </row>
   </sheetData>
